--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il17ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.340871836421647</v>
+        <v>1.784813666666667</v>
       </c>
       <c r="H2">
-        <v>0.340871836421647</v>
+        <v>5.354441</v>
       </c>
       <c r="I2">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="J2">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.8224807173865</v>
+        <v>17.37362766666667</v>
       </c>
       <c r="N2">
-        <v>3.8224807173865</v>
+        <v>52.120883</v>
       </c>
       <c r="O2">
-        <v>0.140859324237531</v>
+        <v>0.4119962501387955</v>
       </c>
       <c r="P2">
-        <v>0.140859324237531</v>
+        <v>0.4119962501387954</v>
       </c>
       <c r="Q2">
-        <v>1.302976021821871</v>
+        <v>31.00868809904478</v>
       </c>
       <c r="R2">
-        <v>1.302976021821871</v>
+        <v>279.078192891403</v>
       </c>
       <c r="S2">
-        <v>0.02546095257768512</v>
+        <v>0.1618342989494478</v>
       </c>
       <c r="T2">
-        <v>0.02546095257768512</v>
+        <v>0.1618342989494477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.340871836421647</v>
+        <v>1.784813666666667</v>
       </c>
       <c r="H3">
-        <v>0.340871836421647</v>
+        <v>5.354441</v>
       </c>
       <c r="I3">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="J3">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.18301407519575</v>
+        <v>7.318911</v>
       </c>
       <c r="N3">
-        <v>7.18301407519575</v>
+        <v>21.956733</v>
       </c>
       <c r="O3">
-        <v>0.2646957783249538</v>
+        <v>0.1735598313117363</v>
       </c>
       <c r="P3">
-        <v>0.2646957783249538</v>
+        <v>0.1735598313117363</v>
       </c>
       <c r="Q3">
-        <v>2.448487198854513</v>
+        <v>13.062892377917</v>
       </c>
       <c r="R3">
-        <v>2.448487198854513</v>
+        <v>117.566031401253</v>
       </c>
       <c r="S3">
-        <v>0.04784494527377145</v>
+        <v>0.06817521668378497</v>
       </c>
       <c r="T3">
-        <v>0.04784494527377145</v>
+        <v>0.06817521668378497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.340871836421647</v>
+        <v>1.784813666666667</v>
       </c>
       <c r="H4">
-        <v>0.340871836421647</v>
+        <v>5.354441</v>
       </c>
       <c r="I4">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="J4">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.6344355676839</v>
+        <v>13.84501566666667</v>
       </c>
       <c r="N4">
-        <v>12.6344355676839</v>
+        <v>41.535047</v>
       </c>
       <c r="O4">
-        <v>0.4655819578348009</v>
+        <v>0.3283191425083613</v>
       </c>
       <c r="P4">
-        <v>0.4655819578348009</v>
+        <v>0.3283191425083613</v>
       </c>
       <c r="Q4">
-        <v>4.306723254107385</v>
+        <v>24.71077317708077</v>
       </c>
       <c r="R4">
-        <v>4.306723254107385</v>
+        <v>222.396958593727</v>
       </c>
       <c r="S4">
-        <v>0.08415602029630634</v>
+        <v>0.1289654899568252</v>
       </c>
       <c r="T4">
-        <v>0.08415602029630634</v>
+        <v>0.1289654899568252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.340871836421647</v>
+        <v>1.784813666666667</v>
       </c>
       <c r="H5">
-        <v>0.340871836421647</v>
+        <v>5.354441</v>
       </c>
       <c r="I5">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="J5">
-        <v>0.1807544705720036</v>
+        <v>0.3928052716376136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.496936425639</v>
+        <v>3.631828666666667</v>
       </c>
       <c r="N5">
-        <v>3.496936425639</v>
+        <v>10.895486</v>
       </c>
       <c r="O5">
-        <v>0.1288629396027143</v>
+        <v>0.08612477604110705</v>
       </c>
       <c r="P5">
-        <v>0.1288629396027143</v>
+        <v>0.08612477604110705</v>
       </c>
       <c r="Q5">
-        <v>1.192007141257316</v>
+        <v>6.482137439258445</v>
       </c>
       <c r="R5">
-        <v>1.192007141257316</v>
+        <v>58.33923695332599</v>
       </c>
       <c r="S5">
-        <v>0.02329255242424071</v>
+        <v>0.03383026604755569</v>
       </c>
       <c r="T5">
-        <v>0.02329255242424071</v>
+        <v>0.03383026604755569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.37479479277744</v>
+        <v>0.5783573333333334</v>
       </c>
       <c r="H6">
-        <v>1.37479479277744</v>
+        <v>1.735072</v>
       </c>
       <c r="I6">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="J6">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.8224807173865</v>
+        <v>17.37362766666667</v>
       </c>
       <c r="N6">
-        <v>3.8224807173865</v>
+        <v>52.120883</v>
       </c>
       <c r="O6">
-        <v>0.140859324237531</v>
+        <v>0.4119962501387955</v>
       </c>
       <c r="P6">
-        <v>0.140859324237531</v>
+        <v>0.4119962501387954</v>
       </c>
       <c r="Q6">
-        <v>5.255126585755134</v>
+        <v>10.04816496761956</v>
       </c>
       <c r="R6">
-        <v>5.255126585755134</v>
+        <v>90.433484708576</v>
       </c>
       <c r="S6">
-        <v>0.1026884045053713</v>
+        <v>0.05244135863049313</v>
       </c>
       <c r="T6">
-        <v>0.1026884045053713</v>
+        <v>0.05244135863049312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.37479479277744</v>
+        <v>0.5783573333333334</v>
       </c>
       <c r="H7">
-        <v>1.37479479277744</v>
+        <v>1.735072</v>
       </c>
       <c r="I7">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="J7">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.18301407519575</v>
+        <v>7.318911</v>
       </c>
       <c r="N7">
-        <v>7.18301407519575</v>
+        <v>21.956733</v>
       </c>
       <c r="O7">
-        <v>0.2646957783249538</v>
+        <v>0.1735598313117363</v>
       </c>
       <c r="P7">
-        <v>0.2646957783249538</v>
+        <v>0.1735598313117363</v>
       </c>
       <c r="Q7">
-        <v>9.875170347026176</v>
+        <v>4.232945848864</v>
       </c>
       <c r="R7">
-        <v>9.875170347026176</v>
+        <v>38.096512639776</v>
       </c>
       <c r="S7">
-        <v>0.1929669001511133</v>
+        <v>0.02209173834616315</v>
       </c>
       <c r="T7">
-        <v>0.1929669001511133</v>
+        <v>0.02209173834616315</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.37479479277744</v>
+        <v>0.5783573333333334</v>
       </c>
       <c r="H8">
-        <v>1.37479479277744</v>
+        <v>1.735072</v>
       </c>
       <c r="I8">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="J8">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6344355676839</v>
+        <v>13.84501566666667</v>
       </c>
       <c r="N8">
-        <v>12.6344355676839</v>
+        <v>41.535047</v>
       </c>
       <c r="O8">
-        <v>0.4655819578348009</v>
+        <v>0.3283191425083613</v>
       </c>
       <c r="P8">
-        <v>0.4655819578348009</v>
+        <v>0.3283191425083613</v>
       </c>
       <c r="Q8">
-        <v>17.36975622813391</v>
+        <v>8.007366340931556</v>
       </c>
       <c r="R8">
-        <v>17.36975622813391</v>
+        <v>72.066297068384</v>
       </c>
       <c r="S8">
-        <v>0.3394157161787954</v>
+        <v>0.0417904335093745</v>
       </c>
       <c r="T8">
-        <v>0.3394157161787954</v>
+        <v>0.0417904335093745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.37479479277744</v>
+        <v>0.5783573333333334</v>
       </c>
       <c r="H9">
-        <v>1.37479479277744</v>
+        <v>1.735072</v>
       </c>
       <c r="I9">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="J9">
-        <v>0.7290138942609711</v>
+        <v>0.1272860095518501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.496936425639</v>
+        <v>3.631828666666667</v>
       </c>
       <c r="N9">
-        <v>3.496936425639</v>
+        <v>10.895486</v>
       </c>
       <c r="O9">
-        <v>0.1288629396027143</v>
+        <v>0.08612477604110705</v>
       </c>
       <c r="P9">
-        <v>0.1288629396027143</v>
+        <v>0.08612477604110705</v>
       </c>
       <c r="Q9">
-        <v>4.807569988642251</v>
+        <v>2.100494742776889</v>
       </c>
       <c r="R9">
-        <v>4.807569988642251</v>
+        <v>18.904452684992</v>
       </c>
       <c r="S9">
-        <v>0.09394287342569109</v>
+        <v>0.0109624790658193</v>
       </c>
       <c r="T9">
-        <v>0.09394287342569109</v>
+        <v>0.0109624790658193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.17016134143393</v>
+        <v>1.712277333333333</v>
       </c>
       <c r="H10">
-        <v>0.17016134143393</v>
+        <v>5.136832</v>
       </c>
       <c r="I10">
-        <v>0.09023163516702525</v>
+        <v>0.3768413339724513</v>
       </c>
       <c r="J10">
-        <v>0.09023163516702525</v>
+        <v>0.3768413339724513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.8224807173865</v>
+        <v>17.37362766666667</v>
       </c>
       <c r="N10">
-        <v>3.8224807173865</v>
+        <v>52.120883</v>
       </c>
       <c r="O10">
-        <v>0.140859324237531</v>
+        <v>0.4119962501387955</v>
       </c>
       <c r="P10">
-        <v>0.140859324237531</v>
+        <v>0.4119962501387954</v>
       </c>
       <c r="Q10">
-        <v>0.6504384464758179</v>
+        <v>29.74846885140623</v>
       </c>
       <c r="R10">
-        <v>0.6504384464758179</v>
+        <v>267.736219662656</v>
       </c>
       <c r="S10">
-        <v>0.01270996715447462</v>
+        <v>0.1552572164939514</v>
       </c>
       <c r="T10">
-        <v>0.01270996715447462</v>
+        <v>0.1552572164939514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.17016134143393</v>
+        <v>1.712277333333333</v>
       </c>
       <c r="H11">
-        <v>0.17016134143393</v>
+        <v>5.136832</v>
       </c>
       <c r="I11">
-        <v>0.09023163516702525</v>
+        <v>0.3768413339724513</v>
       </c>
       <c r="J11">
-        <v>0.09023163516702525</v>
+        <v>0.3768413339724513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.18301407519575</v>
+        <v>7.318911</v>
       </c>
       <c r="N11">
-        <v>7.18301407519575</v>
+        <v>21.956733</v>
       </c>
       <c r="O11">
-        <v>0.2646957783249538</v>
+        <v>0.1735598313117363</v>
       </c>
       <c r="P11">
-        <v>0.2646957783249538</v>
+        <v>0.1735598313117363</v>
       </c>
       <c r="Q11">
-        <v>1.222271310574109</v>
+        <v>12.532005409984</v>
       </c>
       <c r="R11">
-        <v>1.222271310574109</v>
+        <v>112.788048689856</v>
       </c>
       <c r="S11">
-        <v>0.02388393290006902</v>
+        <v>0.06540451835554834</v>
       </c>
       <c r="T11">
-        <v>0.02388393290006902</v>
+        <v>0.06540451835554832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.17016134143393</v>
+        <v>1.712277333333333</v>
       </c>
       <c r="H12">
-        <v>0.17016134143393</v>
+        <v>5.136832</v>
       </c>
       <c r="I12">
-        <v>0.09023163516702525</v>
+        <v>0.3768413339724513</v>
       </c>
       <c r="J12">
-        <v>0.09023163516702525</v>
+        <v>0.3768413339724513</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.6344355676839</v>
+        <v>13.84501566666667</v>
       </c>
       <c r="N12">
-        <v>12.6344355676839</v>
+        <v>41.535047</v>
       </c>
       <c r="O12">
-        <v>0.4655819578348009</v>
+        <v>0.3283191425083613</v>
       </c>
       <c r="P12">
-        <v>0.4655819578348009</v>
+        <v>0.3283191425083613</v>
       </c>
       <c r="Q12">
-        <v>2.149892504457649</v>
+        <v>23.70650650567822</v>
       </c>
       <c r="R12">
-        <v>2.149892504457649</v>
+        <v>213.358558551104</v>
       </c>
       <c r="S12">
-        <v>0.04201022135969908</v>
+        <v>0.1237242236315422</v>
       </c>
       <c r="T12">
-        <v>0.04201022135969908</v>
+        <v>0.1237242236315422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.712277333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.136832</v>
+      </c>
+      <c r="I13">
+        <v>0.3768413339724513</v>
+      </c>
+      <c r="J13">
+        <v>0.3768413339724513</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.631828666666667</v>
+      </c>
+      <c r="N13">
+        <v>10.895486</v>
+      </c>
+      <c r="O13">
+        <v>0.08612477604110705</v>
+      </c>
+      <c r="P13">
+        <v>0.08612477604110705</v>
+      </c>
+      <c r="Q13">
+        <v>6.218697904483556</v>
+      </c>
+      <c r="R13">
+        <v>55.968281140352</v>
+      </c>
+      <c r="S13">
+        <v>0.03245537549140939</v>
+      </c>
+      <c r="T13">
+        <v>0.03245537549140939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4683136666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.404941</v>
+      </c>
+      <c r="I14">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="J14">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.37362766666667</v>
+      </c>
+      <c r="N14">
+        <v>52.120883</v>
+      </c>
+      <c r="O14">
+        <v>0.4119962501387955</v>
+      </c>
+      <c r="P14">
+        <v>0.4119962501387954</v>
+      </c>
+      <c r="Q14">
+        <v>8.136307275878112</v>
+      </c>
+      <c r="R14">
+        <v>73.22676548290301</v>
+      </c>
+      <c r="S14">
+        <v>0.04246337606490316</v>
+      </c>
+      <c r="T14">
+        <v>0.04246337606490314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4683136666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.404941</v>
+      </c>
+      <c r="I15">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="J15">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.318911</v>
+      </c>
+      <c r="N15">
+        <v>21.956733</v>
+      </c>
+      <c r="O15">
+        <v>0.1735598313117363</v>
+      </c>
+      <c r="P15">
+        <v>0.1735598313117363</v>
+      </c>
+      <c r="Q15">
+        <v>3.427546046417</v>
+      </c>
+      <c r="R15">
+        <v>30.847914417753</v>
+      </c>
+      <c r="S15">
+        <v>0.01788835792623984</v>
+      </c>
+      <c r="T15">
+        <v>0.01788835792623983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.17016134143393</v>
-      </c>
-      <c r="H13">
-        <v>0.17016134143393</v>
-      </c>
-      <c r="I13">
-        <v>0.09023163516702525</v>
-      </c>
-      <c r="J13">
-        <v>0.09023163516702525</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.496936425639</v>
-      </c>
-      <c r="N13">
-        <v>3.496936425639</v>
-      </c>
-      <c r="O13">
-        <v>0.1288629396027143</v>
-      </c>
-      <c r="P13">
-        <v>0.1288629396027143</v>
-      </c>
-      <c r="Q13">
-        <v>0.5950433930959046</v>
-      </c>
-      <c r="R13">
-        <v>0.5950433930959046</v>
-      </c>
-      <c r="S13">
-        <v>0.01162751375278253</v>
-      </c>
-      <c r="T13">
-        <v>0.01162751375278253</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4683136666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.404941</v>
+      </c>
+      <c r="I16">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="J16">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.84501566666667</v>
+      </c>
+      <c r="N16">
+        <v>41.535047</v>
+      </c>
+      <c r="O16">
+        <v>0.3283191425083613</v>
+      </c>
+      <c r="P16">
+        <v>0.3283191425083613</v>
+      </c>
+      <c r="Q16">
+        <v>6.483810051914111</v>
+      </c>
+      <c r="R16">
+        <v>58.354290467227</v>
+      </c>
+      <c r="S16">
+        <v>0.03383899541061934</v>
+      </c>
+      <c r="T16">
+        <v>0.03383899541061933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4683136666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.404941</v>
+      </c>
+      <c r="I17">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="J17">
+        <v>0.103067384838085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.631828666666667</v>
+      </c>
+      <c r="N17">
+        <v>10.895486</v>
+      </c>
+      <c r="O17">
+        <v>0.08612477604110705</v>
+      </c>
+      <c r="P17">
+        <v>0.08612477604110705</v>
+      </c>
+      <c r="Q17">
+        <v>1.700834999591778</v>
+      </c>
+      <c r="R17">
+        <v>15.307514996326</v>
+      </c>
+      <c r="S17">
+        <v>0.008876655436322661</v>
+      </c>
+      <c r="T17">
+        <v>0.008876655436322661</v>
       </c>
     </row>
   </sheetData>
